--- a/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDC3A5-3BB3-408B-BCFB-EEA3D58082A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC915B65-A1C8-46A9-9551-25B168BC6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>Employee Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Diff %</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Period: September 2024</t>
   </si>
   <si>
-    <t>Bug Fixing</t>
-  </si>
-  <si>
     <t>Project Overhead</t>
   </si>
   <si>
@@ -291,15 +285,9 @@
     <t>Design</t>
   </si>
   <si>
-    <t>NEXELUS 2024.2</t>
-  </si>
-  <si>
     <t>Arif Khan</t>
   </si>
   <si>
-    <t>Production Issues</t>
-  </si>
-  <si>
     <t>014</t>
   </si>
   <si>
@@ -307,16 +295,53 @@
   </si>
   <si>
     <t>DB Manager</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Ability to assign Employees to Roles by Media type and by Client</t>
+  </si>
+  <si>
+    <t>Associate vendor/stations/sites to multiple pay to</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: EDI File Processing</t>
+  </si>
+  <si>
+    <t>Google Drive integration. (Setup and Integration development)</t>
+  </si>
+  <si>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Regular bug fixing activity</t>
+  </si>
+  <si>
+    <t>PR-0013</t>
+  </si>
+  <si>
+    <t>Development of new project/assignment/task</t>
+  </si>
+  <si>
+    <t>Session with US team</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +420,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -571,7 +602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -579,8 +610,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,12 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,9 +667,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,6 +678,30 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,7 +764,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1062,7 +1110,7 @@
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,30 +1121,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="37"/>
+      <c r="B2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1104,11 +1152,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1116,11 +1164,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1128,11 +1176,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1140,334 +1188,338 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="44">
+        <v>60</v>
+      </c>
+      <c r="C10" s="49">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.4684931506849315</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+        <v>1.5205479452054795</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="31"/>
+      <c r="J23" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34">
-        <v>0.95</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34"/>
-      <c r="J23" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="E27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="G27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="I27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="J27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="K27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="L27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="M27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="N27" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="28" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="B28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1479,14 +1531,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="B29" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
         <v>19</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1498,14 +1554,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
+      <c r="B30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>3</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1517,14 +1577,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="B31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
         <v>11</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>14</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1536,14 +1600,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="B32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
         <v>8</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1555,14 +1623,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="B33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1574,14 +1646,16 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>28</v>
+      <c r="B34" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1593,14 +1667,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
+      <c r="B35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
         <v>8</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1741,199 +1819,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:V15"/>
+  <dimension ref="B2:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="6"/>
-    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="6" customWidth="1"/>
-    <col min="19" max="21" width="9.28515625" style="6"/>
-    <col min="22" max="22" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="6"/>
+    <col min="11" max="11" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="40" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
+    <col min="20" max="22" width="9.28515625" style="6"/>
+    <col min="23" max="23" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57" t="s">
+      <c r="I6" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="56" t="s">
+      <c r="J6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="M6" s="56" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="N6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="Q6" s="14" t="s">
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="R6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="T6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="55"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="60"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="11" t="s">
+      <c r="R7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>76</v>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -1941,50 +2026,53 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="8"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="S8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="39"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="2"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
+      <c r="C9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="16">
-        <f t="shared" ref="K9" si="0">IF(I9=0,0,(J9-I9)/I9)</f>
+      <c r="K9" s="36">
+        <v>6</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
-        <v>22</v>
-      </c>
-      <c r="O9" s="16">
+      <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="16">
-        <f>IF((I9+M9)=0,1,((J9+N9)-(I9+M9))/(I9+M9))</f>
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="P9" s="14">
         <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="39">
+        <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
+        <v>10</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -1992,190 +2080,435 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="8">
-        <f>SUM(S9:U9)</f>
+      <c r="V9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="W9" s="8">
+        <f>SUM(T9:V9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="36">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="39">
+        <f t="shared" ref="R10:R19" si="1">D10+E10+F10+G10+H10+I10+K10+O10</f>
+        <v>2</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="8">
-        <f>SUM(S10:U10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="2"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="C11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="16">
-        <f t="shared" ref="K11" si="1">IF(I11=0,0,(J11-I11)/I11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="16">
-        <f>IF((I11+M11)=0,1,((J11+N11)-(I11+M11))/(I11+M11))</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2">
-        <v>1</v>
+      <c r="K11" s="36">
+        <v>6</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="39">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="8">
-        <f>SUM(S11:U11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V11" s="2"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="K12" s="36">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="V12" s="2"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="39"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="14"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
         <v>22</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18">
-        <f>SUM(D8:D13)</f>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="39">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="39"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="39">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
+        <v>11.5</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="14"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="39">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="14"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="39"/>
+    </row>
+    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16">
+        <f>SUM(D8:D21)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="18">
-        <f t="shared" ref="E14:J14" si="2">SUM(E8:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:K22" si="2">SUM(E8:E21)</f>
+        <v>18.5</v>
+      </c>
+      <c r="F22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H22" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="18">
+      <c r="J22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="18">
+      <c r="K22" s="16">
         <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" ref="L22" si="3">IF(J22=0,0,(K22-J22)/J22)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="19">
-        <f t="shared" ref="K14" si="3">IF(I14=0,0,(J14-I14)/I14)</f>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16">
+        <f t="shared" ref="N22:O22" si="4">SUM(N8:N21)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18">
-        <f t="shared" ref="M14:N14" si="4">SUM(M8:M13)</f>
+      <c r="O22" s="16">
+        <f t="shared" si="4"/>
+        <v>55.5</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" ref="P22" si="5">IF(N22=0,0,(O22-N22)/N22)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="18">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="O14" s="19">
-        <f t="shared" ref="O14" si="5">IF(M14=0,0,(N14-M14)/M14)</f>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16">
+        <f>SUM(R8:R21)</f>
+        <v>94</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16">
+        <f t="shared" ref="T22:W22" si="6">SUM(T8:T21)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18">
-        <f t="shared" ref="S14:V14" si="6">SUM(S8:S13)</f>
-        <v>1</v>
-      </c>
-      <c r="T14" s="18">
+      <c r="U22" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U14" s="18">
+      <c r="V22" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="18">
+      <c r="W22" s="16">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <conditionalFormatting sqref="S9">
+  <conditionalFormatting sqref="T9:T19">
     <cfRule type="expression" priority="3">
-      <formula>S9/$V9</formula>
+      <formula>T9/$W9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC915B65-A1C8-46A9-9551-25B168BC6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A7E6D-1B9C-44B6-9AE2-E9A9F9020394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Employee Name</t>
   </si>
@@ -331,6 +332,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -424,11 +437,11 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +631,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,7 +679,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,16 +722,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -724,15 +742,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,6 +770,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,597 +1133,352 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="C2" s="43"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="46">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.5205479452054795</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+        <v>1.5287671232876712</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
         <v>21</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="31">
-        <v>0.95</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="32">
-        <v>0.4</v>
-      </c>
+      <c r="B18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="31">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="31">
-        <v>0.85</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="32">
-        <v>0.1</v>
-      </c>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="31">
-        <v>0.85</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="32">
-        <v>0.4</v>
-      </c>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="32">
-        <v>0.6</v>
-      </c>
+      <c r="B21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="32">
-        <v>0.6</v>
-      </c>
+      <c r="B22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="31"/>
-      <c r="J23" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2">
-        <v>19</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="B23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
+    <mergeCell ref="B14:N14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1720,7 +1488,430 @@
     <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A452312-68A4-41DF-8F6E-144869F97606}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95A46EA3-7FD8-48AA-8911-BABEF98FFD03}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BCEF8E1-6ED1-44BC-A586-68BC0436BE93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C6044D4-CBF1-4A7D-AABF-1F9C0CFD53AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1843FD49-5E1D-4E0F-A945-EADDA63C2530}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2705BC7-7226-4B55-8F06-C17E0DE08D1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C2600159-B42C-4F75-8A0F-57F59F7098DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1729,12 +1920,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18F9DDBD-BF4A-4AAE-9D83-46F1F883B8BC}</x14:id>
+          <x14:id>{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
+  <conditionalFormatting sqref="C18:C25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1743,12 +1934,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30DA2E9D-64DB-45BE-9ABC-B381071C39D4}</x14:id>
+          <x14:id>{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
+  <conditionalFormatting sqref="C30:C37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1757,7 +1948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9282F742-61CD-4C25-A7D1-0B84D58F0617}</x14:id>
+          <x14:id>{5986F5E5-E055-4167-84B1-DDD18063906E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1767,7 +1958,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18F9DDBD-BF4A-4AAE-9D83-46F1F883B8BC}">
+          <x14:cfRule type="dataBar" id="{95A46EA3-7FD8-48AA-8911-BABEF98FFD03}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1779,10 +1970,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30DA2E9D-64DB-45BE-9ABC-B381071C39D4}">
+          <x14:cfRule type="dataBar" id="{7BCEF8E1-6ED1-44BC-A586-68BC0436BE93}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1794,10 +1985,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>D18:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9282F742-61CD-4C25-A7D1-0B84D58F0617}">
+          <x14:cfRule type="dataBar" id="{5C6044D4-CBF1-4A7D-AABF-1F9C0CFD53AA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1809,7 +2000,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1843FD49-5E1D-4E0F-A945-EADDA63C2530}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2705BC7-7226-4B55-8F06-C17E0DE08D1B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C2600159-B42C-4F75-8A0F-57F59F7098DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5986F5E5-E055-4167-84B1-DDD18063906E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1817,12 +2098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,89 +2123,89 @@
     <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="40" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
     <col min="20" max="22" width="9.28515625" style="6"/>
     <col min="23" max="23" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -1933,55 +2214,55 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="N6" s="61" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="N6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="R6" s="37" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="R6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="58" t="s">
+      <c r="T6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="60"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2281,7 @@
       <c r="P7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="37" t="s">
         <v>97</v>
       </c>
       <c r="T7" s="11" t="s">
@@ -2017,7 +2298,7 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="1"/>
@@ -2033,7 +2314,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
-      <c r="R8" s="39"/>
+      <c r="R8" s="38"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -2041,24 +2322,26 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="5">
         <v>4</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="36">
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="35">
         <v>6</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
-        <v>0</v>
+        <f>IF(J9=0,0,(K9/J9))</f>
+        <v>0.3</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2070,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="39">
+      <c r="R9" s="38">
         <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
         <v>10</v>
       </c>
@@ -2090,26 +2373,31 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="36">
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="35">
         <v>2</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14">
+        <f>IF(J10=0,0,(K10/J10))</f>
+        <v>0.25</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="39">
-        <f t="shared" ref="R10:R19" si="1">D10+E10+F10+G10+H10+I10+K10+O10</f>
+      <c r="R10" s="38">
+        <f t="shared" ref="R10:R19" si="0">D10+E10+F10+G10+H10+I10+K10+O10</f>
         <v>2</v>
       </c>
       <c r="T10" s="2"/>
@@ -2119,27 +2407,32 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="36">
-        <v>6</v>
-      </c>
-      <c r="L11" s="14"/>
+      <c r="J11" s="2">
+        <v>46</v>
+      </c>
+      <c r="K11" s="35">
+        <v>10.5</v>
+      </c>
+      <c r="L11" s="14">
+        <f>IF(J11=0,0,(K11/J11))</f>
+        <v>0.22826086956521738</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="39">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2148,26 +2441,31 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="36">
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="35">
         <v>2</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14">
+        <f>IF(J12=0,0,(K12/J12))</f>
+        <v>0.5</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="39">
-        <f t="shared" si="1"/>
+      <c r="R12" s="38">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T12" s="2"/>
@@ -2176,40 +2474,40 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="14"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="39"/>
+      <c r="R13" s="38"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28">
         <v>4</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="2"/>
@@ -2219,8 +2517,8 @@
       <c r="O14" s="2"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="39">
-        <f t="shared" si="1"/>
+      <c r="R14" s="38">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="T14" s="2"/>
@@ -2229,14 +2527,14 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="2"/>
@@ -2248,8 +2546,8 @@
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="39">
-        <f t="shared" si="1"/>
+      <c r="R15" s="38">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="T15" s="2"/>
@@ -2258,14 +2556,14 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="2"/>
@@ -2275,21 +2573,21 @@
       <c r="O16" s="2"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="39"/>
+      <c r="R16" s="38"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="2"/>
@@ -2301,8 +2599,8 @@
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="39">
-        <f t="shared" si="1"/>
+      <c r="R17" s="38">
+        <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
       <c r="T17" s="2"/>
@@ -2311,16 +2609,16 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28">
         <v>11.5</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="2"/>
@@ -2330,8 +2628,8 @@
       <c r="O18" s="2"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="39">
-        <f t="shared" si="1"/>
+      <c r="R18" s="38">
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="T18" s="2"/>
@@ -2340,16 +2638,16 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28">
         <v>3</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
@@ -2359,8 +2657,8 @@
       <c r="O19" s="2"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="39">
-        <f t="shared" si="1"/>
+      <c r="R19" s="38">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="T19" s="2"/>
@@ -2385,7 +2683,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="39"/>
+      <c r="R20" s="38"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2409,12 +2707,12 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="39"/>
+      <c r="R21" s="38"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="39"/>
+      <c r="W21" s="38"/>
     </row>
     <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
@@ -2426,70 +2724,70 @@
         <v>0</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" ref="E22:K22" si="2">SUM(E8:E21)</f>
+        <f t="shared" ref="E22:K22" si="1">SUM(E8:E21)</f>
         <v>18.5</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="K22" s="16">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>20.5</v>
       </c>
       <c r="L22" s="17">
-        <f t="shared" ref="L22" si="3">IF(J22=0,0,(K22-J22)/J22)</f>
-        <v>0</v>
+        <f t="shared" ref="L22" si="2">IF(J22=0,0,(K22-J22)/J22)</f>
+        <v>-0.73717948717948723</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16">
-        <f t="shared" ref="N22:O22" si="4">SUM(N8:N21)</f>
+        <f t="shared" ref="N22:O22" si="3">SUM(N8:N21)</f>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" ref="P22" si="5">IF(N22=0,0,(O22-N22)/N22)</f>
+        <f t="shared" ref="P22" si="4">IF(N22=0,0,(O22-N22)/N22)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="16">
         <f>SUM(R8:R21)</f>
-        <v>94</v>
+        <v>98.5</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="16">
-        <f t="shared" ref="T22:W22" si="6">SUM(T8:T21)</f>
+        <f t="shared" ref="T22:W22" si="5">SUM(T8:T21)</f>
         <v>0</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Arif Khan.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A7E6D-1B9C-44B6-9AE2-E9A9F9020394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78B36A-C7DD-4BED-A826-3994B259AF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
     <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>Employee Name</t>
   </si>
@@ -160,9 +163,6 @@
     <t>Overall Commitment</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Database understanding</t>
   </si>
   <si>
@@ -337,13 +337,13 @@
     <t>Quarterly Evaluation (%)</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
+    <t>Jul-Sep</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,7 +672,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,6 +727,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,9 +742,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,8 +772,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,6 +823,1817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Attendance and Punctuality</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Working Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Employee Working Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days Worked over 8 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days Worked under 8 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weekends</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Late Arrivals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Employee!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Short Leaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Employee!$C$16:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Employee!$C$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-580B-4D29-B39D-ACAB273D3455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="647740943"/>
+        <c:axId val="647752943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="647740943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647752943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647752943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647740943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636084F5-2A2D-4BD6-9E7B-21A0BDF3EB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Employee"/>
+      <sheetName val="Quarterly Evaluation"/>
+      <sheetName val="September 2024"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>July</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>August</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>September</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>October</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>November</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>December</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>January</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>February</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>March</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>April</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>May</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>June</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Total Working Days</v>
+          </cell>
+          <cell r="C14">
+            <v>21</v>
+          </cell>
+          <cell r="D14">
+            <v>22</v>
+          </cell>
+          <cell r="E14">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Employee Working Days</v>
+          </cell>
+          <cell r="C15">
+            <v>21</v>
+          </cell>
+          <cell r="D15">
+            <v>22</v>
+          </cell>
+          <cell r="E15">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Leaves</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Days Worked over 8 hours</v>
+          </cell>
+          <cell r="C17">
+            <v>18</v>
+          </cell>
+          <cell r="D17">
+            <v>22</v>
+          </cell>
+          <cell r="E17">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Days Worked under 8 hours</v>
+          </cell>
+          <cell r="C18">
+            <v>3</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Weekends</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>1</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Late Arrivals</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Short Leaves</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1122,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,30 +2967,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="44"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1165,11 +2998,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1177,11 +3010,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1189,11 +3022,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1201,99 +3034,99 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="46">
+        <v>59</v>
+      </c>
+      <c r="C10" s="47">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.5287671232876712</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+        <v>1.5315068493150685</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="L16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="25" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2">
@@ -1316,7 +3149,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
@@ -1339,7 +3172,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
@@ -1362,7 +3195,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="2">
@@ -1385,7 +3218,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
@@ -1408,7 +3241,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2">
@@ -1431,10 +3264,12 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -1452,7 +3287,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
@@ -1489,346 +3324,404 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A452312-68A4-41DF-8F6E-144869F97606}">
-  <dimension ref="B3:M37"/>
+  <dimension ref="B3:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C37"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="58"/>
       <c r="C4" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>101</v>
+      <c r="F5" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="30">
+        <v>34</v>
+      </c>
+      <c r="C7" s="29">
         <v>0.8</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="30">
+        <v>35</v>
+      </c>
+      <c r="C8" s="29">
         <v>0.8</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="30">
+        <v>38</v>
+      </c>
+      <c r="C11" s="29">
         <v>0.9</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="30">
+        <v>52</v>
+      </c>
+      <c r="C13" s="29">
         <v>0.75</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="C17" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="29">
         <v>0.9</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C19" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="29">
         <v>0.9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="30"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.1</v>
+      </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C27" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="30">
         <v>0.1</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="30">
         <v>0.4</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="31">
+      <c r="C30" s="30">
         <v>0.6</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C32" s="30">
         <v>0.6</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C28:E28"/>
+  <mergeCells count="4">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B24:F24"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D13">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="C7:C14">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C23">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C32">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5986F5E5-E055-4167-84B1-DDD18063906E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1841,8 +3734,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D25">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="D16:D23">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1855,8 +3748,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D37">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D25:D32">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1869,8 +3762,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E13">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E7:E14">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1883,8 +3776,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="E16:E23">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1897,8 +3790,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E37">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="E25:E32">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1911,7 +3804,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C13">
+  <conditionalFormatting sqref="F7:F14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1920,12 +3813,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}</x14:id>
+          <x14:id>{EB86EB51-8BBE-4227-9E75-E0D05ACB5979}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C25">
+  <conditionalFormatting sqref="F16:F23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1934,12 +3827,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}</x14:id>
+          <x14:id>{9689A006-6A51-461D-8245-E01FFFF24555}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C37">
+  <conditionalFormatting sqref="F25:F32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1948,7 +3841,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5986F5E5-E055-4167-84B1-DDD18063906E}</x14:id>
+          <x14:id>{A0DB4145-5E79-4A73-AB28-5F67BEB3775A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1957,6 +3850,51 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C16:C23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5986F5E5-E055-4167-84B1-DDD18063906E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C25:C32</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{95A46EA3-7FD8-48AA-8911-BABEF98FFD03}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1970,7 +3908,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D13</xm:sqref>
+          <xm:sqref>D7:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7BCEF8E1-6ED1-44BC-A586-68BC0436BE93}">
@@ -1985,7 +3923,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18:D25</xm:sqref>
+          <xm:sqref>D16:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C6044D4-CBF1-4A7D-AABF-1F9C0CFD53AA}">
@@ -2000,7 +3938,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D37</xm:sqref>
+          <xm:sqref>D25:D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1843FD49-5E1D-4E0F-A945-EADDA63C2530}">
@@ -2015,7 +3953,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E6:E13</xm:sqref>
+          <xm:sqref>E7:E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2705BC7-7226-4B55-8F06-C17E0DE08D1B}">
@@ -2030,7 +3968,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E18:E25</xm:sqref>
+          <xm:sqref>E16:E23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C2600159-B42C-4F75-8A0F-57F59F7098DB}">
@@ -2045,10 +3983,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E30:E37</xm:sqref>
+          <xm:sqref>E25:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A9333CA-FCEC-49FB-9425-83F2CABDAFAC}">
+          <x14:cfRule type="dataBar" id="{EB86EB51-8BBE-4227-9E75-E0D05ACB5979}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2060,10 +3998,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C13</xm:sqref>
+          <xm:sqref>F7:F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EF8EE33-B321-4B4E-9A14-7D8947AC770A}">
+          <x14:cfRule type="dataBar" id="{9689A006-6A51-461D-8245-E01FFFF24555}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2075,10 +4013,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18:C25</xm:sqref>
+          <xm:sqref>F16:F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5986F5E5-E055-4167-84B1-DDD18063906E}">
+          <x14:cfRule type="dataBar" id="{A0DB4145-5E79-4A73-AB28-5F67BEB3775A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -2090,7 +4028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C30:C37</xm:sqref>
+          <xm:sqref>F25:F32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2123,7 +4061,7 @@
     <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="38" customWidth="1"/>
     <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
     <col min="20" max="22" width="9.28515625" style="6"/>
     <col min="23" max="23" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -2157,7 +4095,7 @@
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -2183,7 +4121,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -2215,16 +4153,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>15</v>
@@ -2236,7 +4174,7 @@
       </c>
       <c r="O6" s="55"/>
       <c r="P6" s="55"/>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="35" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="52" t="s">
@@ -2249,17 +4187,17 @@
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>62</v>
+      <c r="D7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
@@ -2281,8 +4219,8 @@
       <c r="P7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="37" t="s">
-        <v>97</v>
+      <c r="R7" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>29</v>
@@ -2298,8 +4236,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>86</v>
+      <c r="B8" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -2314,7 +4252,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
-      <c r="R8" s="38"/>
+      <c r="R8" s="37"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -2322,13 +4260,13 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="5">
         <v>4</v>
       </c>
@@ -2336,7 +4274,7 @@
       <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>6</v>
       </c>
       <c r="L9" s="14">
@@ -2353,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="38">
+      <c r="R9" s="37">
         <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
         <v>10</v>
       </c>
@@ -2373,19 +4311,19 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="2">
         <v>8</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>2</v>
       </c>
       <c r="L10" s="14">
@@ -2396,7 +4334,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="38">
+      <c r="R10" s="37">
         <f t="shared" ref="R10:R19" si="0">D10+E10+F10+G10+H10+I10+K10+O10</f>
         <v>2</v>
       </c>
@@ -2407,19 +4345,19 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="C11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2">
         <v>46</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>10.5</v>
       </c>
       <c r="L11" s="14">
@@ -2430,7 +4368,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="38">
+      <c r="R11" s="37">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
@@ -2441,19 +4379,19 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="C12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="2">
         <v>4</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>2</v>
       </c>
       <c r="L12" s="14">
@@ -2464,7 +4402,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="38">
+      <c r="R12" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2474,40 +4412,40 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="14"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="38"/>
+      <c r="R13" s="37"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
         <v>4</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="2"/>
@@ -2517,7 +4455,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="38">
+      <c r="R14" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2527,14 +4465,14 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="2"/>
@@ -2546,7 +4484,7 @@
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="38">
+      <c r="R15" s="37">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2556,14 +4494,14 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
+      <c r="B16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="2"/>
@@ -2573,21 +4511,21 @@
       <c r="O16" s="2"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="37"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="2"/>
@@ -2599,7 +4537,7 @@
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="38">
+      <c r="R17" s="37">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
@@ -2609,16 +4547,16 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28">
+      <c r="B18" s="33"/>
+      <c r="C18" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27">
         <v>11.5</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="2"/>
@@ -2628,7 +4566,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="38">
+      <c r="R18" s="37">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
@@ -2638,16 +4576,16 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28">
+      <c r="B19" s="33"/>
+      <c r="C19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
         <v>3</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
@@ -2657,7 +4595,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="38">
+      <c r="R19" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2683,7 +4621,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="38"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2707,12 +4645,12 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="38"/>
+      <c r="R21" s="37"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="38"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
